--- a/biology/Médecine/Syndrome_de_Cassandre/Syndrome_de_Cassandre.xlsx
+++ b/biology/Médecine/Syndrome_de_Cassandre/Syndrome_de_Cassandre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome ou complexe de Cassandre désigne les situations où on ne croit pas ou ignore des avertissements ou préoccupations légitimes. L'expression est tirée de la mythologie grecque, faisant référence à la malédiction de Cassandre, ayant le don de prophétie et incapable de convaincre autrui de la validité de ses prédictions.
-L'expression est connue depuis au moins 1949, année où le philosophe français Gaston Bachelard l'a utilisée pour faire référence à une croyance disant que les choses peuvent être sues à l'avance[1].
-La métaphore est abordée dans une grande variété de domaines tels les sciences médicales[2],[3], les médias[4], le féminisme[5],[6], la psychologie[7],[8], la politique[9] et le survivalisme.
+L'expression est connue depuis au moins 1949, année où le philosophe français Gaston Bachelard l'a utilisée pour faire référence à une croyance disant que les choses peuvent être sues à l'avance.
+La métaphore est abordée dans une grande variété de domaines tels les sciences médicales les médias, le féminisme la psychologie la politique et le survivalisme.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Origine mythologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la mythologie grecque, Cassandre avait le don de la prophétie qui lui avait été accordé par Apollon. Mais le dieu regretta sa décision, et comme il ne pouvait plus lui retirer son don alors il lui cracha dans la bouche car elle n’avait pas tenu sa promesse, il lui donna une malédiction : personne ne croirait jamais les prédictions de Cassandre. Durant la guerre de Troie, elle était du côté des Troyens et tenta de nombreuses fois de les prévenir, notamment lors de l'épisode du cheval de Troie, en vain[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la mythologie grecque, Cassandre avait le don de la prophétie qui lui avait été accordé par Apollon. Mais le dieu regretta sa décision, et comme il ne pouvait plus lui retirer son don alors il lui cracha dans la bouche car elle n’avait pas tenu sa promesse, il lui donna une malédiction : personne ne croirait jamais les prédictions de Cassandre. Durant la guerre de Troie, elle était du côté des Troyens et tenta de nombreuses fois de les prévenir, notamment lors de l'épisode du cheval de Troie, en vain.
 </t>
         </is>
       </c>
